--- a/scripts/ugm/data/kyushu/list_kyushu.xlsx
+++ b/scripts/ugm/data/kyushu/list_kyushu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/genji/scripts/ugm/data/kyushu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6CF2E5-ACFC-9140-A4AD-2629E1A90A10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFE60A1-CF5B-E143-A27B-B43BF3D7A5A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -1088,7 +1088,7 @@
   </sheetPr>
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:A53"/>
     </sheetView>
   </sheetViews>
@@ -1669,10 +1669,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1966,7 +1966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1990,10 +1990,8 @@
         <v>42</v>
       </c>
       <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2001,70 +1999,63 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1">
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1">
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
       <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1">
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
       <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1">
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2072,7 +2063,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -2080,7 +2071,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2088,7 +2079,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2096,7 +2087,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
       <c r="A48" s="6">
         <v>47</v>
       </c>

--- a/scripts/ugm/data/kyushu/list_kyushu.xlsx
+++ b/scripts/ugm/data/kyushu/list_kyushu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/genji/scripts/ugm/data/kyushu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFE60A1-CF5B-E143-A27B-B43BF3D7A5A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE7EA5B-3502-514E-9AF4-FFA078F987E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">シート1!$A$1:$C$53</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>book</t>
   </si>
@@ -42,641 +50,46 @@
   </si>
   <si>
     <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411194.json</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411193.json</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411196.json</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411197.json</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>桐壺</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>帚木</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>空蝉</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>夕顔</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>若紫</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>末摘花</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>紅葉賀</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>花宴</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>葵</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>賢木</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>花散里</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>須磨</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>明石</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>澪標</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>蓬生</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>関屋</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>絵合</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>松風</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>薄雲</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>朝顔（槿）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>少女</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>玉鬘</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>初音</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>胡蝶</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>蛍</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>常夏</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>篝火</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>野分</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>行幸</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>藤袴</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>真木柱</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>梅枝</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>藤裏葉</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>若菜</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>匂宮</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>紅梅</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>竹河</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>橋姫</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>椎本</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>総角</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>早蕨</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>宿木</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>東屋</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>浮舟</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>蜻蛉</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>手習</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>夢浮橋</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>柏木</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>横笛</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>鈴虫</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>夕霧</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>御法</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>幻</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>雲隠</t>
-    </r>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411199.json</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411200.json</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411202.json</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411203.json</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411204.json</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -702,22 +115,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="Tsukushi A Round Gothic Bold"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -756,7 +157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -765,9 +166,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1659,7 +1057,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1669,10 +1067,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1680,7 +1078,7 @@
     <col min="2" max="2" width="74.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1688,471 +1086,308 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1">
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1">
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1">
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1">
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1">
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1">
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="34" spans="1:1" ht="15.75" customHeight="1">
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="35" spans="1:1" ht="15.75" customHeight="1">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="36" spans="1:1" ht="15.75" customHeight="1">
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="37" spans="1:1" ht="15.75" customHeight="1">
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="38" spans="1:1" ht="15.75" customHeight="1">
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="39" spans="1:1" ht="15.75" customHeight="1">
       <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="40" spans="1:1" ht="15.75" customHeight="1">
       <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="41" spans="1:1" ht="15.75" customHeight="1">
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="42" spans="1:1" ht="15.75" customHeight="1">
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="43" spans="1:1" ht="15.75" customHeight="1">
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="44" spans="1:1" ht="15.75" customHeight="1">
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="45" spans="1:1" ht="15.75" customHeight="1">
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="46" spans="1:1" ht="15.75" customHeight="1">
       <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="47" spans="1:1" ht="15.75" customHeight="1">
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="48" spans="1:1" ht="15.75" customHeight="1">
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="49" spans="1:1" ht="15.75" customHeight="1">
       <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="50" spans="1:1" ht="15.75" customHeight="1">
       <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="51" spans="1:1" ht="15.75" customHeight="1">
       <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="52" spans="1:1" ht="15.75" customHeight="1">
       <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="53" spans="1:1" ht="15.75" customHeight="1">
       <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="54" spans="1:1" ht="15.75" customHeight="1">
       <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1">
+    </row>
+    <row r="55" spans="1:1" ht="15.75" customHeight="1">
       <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>55</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="4"/>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{96A7E99D-5192-3A4A-A5A3-734C05778044}"/>

--- a/scripts/ugm/data/kyushu/list_kyushu.xlsx
+++ b/scripts/ugm/data/kyushu/list_kyushu.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/genji/scripts/ugm/data/kyushu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE7EA5B-3502-514E-9AF4-FFA078F987E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EA789F-E827-C249-BBD3-6742CEBC4D45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
     <sheet name="シート2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">シート1!$A$1:$C$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">シート1!$A$1:$C$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -119,6 +119,14 @@
       <name val="Tsukushi A Round Gothic Bold"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -166,6 +174,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -484,10 +493,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -507,556 +516,818 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>333</v>
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>334</v>
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>335</v>
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>336</v>
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>337</v>
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1">
-        <v>338</v>
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1">
-        <v>339</v>
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1">
-        <v>340</v>
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="1">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="C15">
         <v>18</v>
-      </c>
-      <c r="C15" s="1">
-        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="1">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1">
-        <v>342</v>
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="1">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1">
-        <v>343</v>
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="1">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1">
-        <v>344</v>
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="1">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1">
-        <v>345</v>
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="1">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1">
-        <v>28</v>
-      </c>
-      <c r="C20" s="1">
-        <v>346</v>
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="1">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1">
-        <v>30</v>
-      </c>
-      <c r="C21" s="1">
-        <v>347</v>
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="1">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1">
-        <v>32</v>
-      </c>
-      <c r="C22" s="1">
-        <v>348</v>
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="1">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1">
-        <v>34</v>
-      </c>
-      <c r="C23" s="1">
-        <v>349</v>
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2">
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="1">
-        <v>10</v>
-      </c>
-      <c r="B24" s="1">
-        <v>36</v>
-      </c>
-      <c r="C24" s="1">
-        <v>350</v>
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="1">
-        <v>10</v>
-      </c>
-      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A65" s="1">
+        <v>2</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A66" s="1">
+        <v>3</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A67" s="1">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A68" s="1">
+        <v>5</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A69" s="1">
+        <v>10</v>
+      </c>
+      <c r="B69" s="1">
+        <v>3</v>
+      </c>
+      <c r="C69" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A70" s="1">
+        <v>10</v>
+      </c>
+      <c r="B70" s="1">
+        <v>5</v>
+      </c>
+      <c r="C70" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A71" s="1">
+        <v>10</v>
+      </c>
+      <c r="B71" s="1">
+        <v>7</v>
+      </c>
+      <c r="C71" s="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A72" s="1">
+        <v>10</v>
+      </c>
+      <c r="B72" s="1">
+        <v>9</v>
+      </c>
+      <c r="C72" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A73" s="1">
+        <v>10</v>
+      </c>
+      <c r="B73" s="1">
+        <v>10</v>
+      </c>
+      <c r="C73" s="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A74" s="1">
+        <v>10</v>
+      </c>
+      <c r="B74" s="1">
+        <v>12</v>
+      </c>
+      <c r="C74" s="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A75" s="1">
+        <v>10</v>
+      </c>
+      <c r="B75" s="1">
+        <v>14</v>
+      </c>
+      <c r="C75" s="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A76" s="1">
+        <v>10</v>
+      </c>
+      <c r="B76" s="1">
+        <v>16</v>
+      </c>
+      <c r="C76" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A77" s="1">
+        <v>10</v>
+      </c>
+      <c r="B77" s="1">
+        <v>18</v>
+      </c>
+      <c r="C77" s="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A78" s="1">
+        <v>10</v>
+      </c>
+      <c r="B78" s="1">
+        <v>20</v>
+      </c>
+      <c r="C78" s="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A79" s="1">
+        <v>10</v>
+      </c>
+      <c r="B79" s="1">
+        <v>22</v>
+      </c>
+      <c r="C79" s="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A80" s="1">
+        <v>10</v>
+      </c>
+      <c r="B80" s="1">
+        <v>24</v>
+      </c>
+      <c r="C80" s="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A81" s="1">
+        <v>10</v>
+      </c>
+      <c r="B81" s="1">
+        <v>26</v>
+      </c>
+      <c r="C81" s="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A82" s="1">
+        <v>10</v>
+      </c>
+      <c r="B82" s="1">
+        <v>28</v>
+      </c>
+      <c r="C82" s="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A83" s="1">
+        <v>10</v>
+      </c>
+      <c r="B83" s="1">
+        <v>30</v>
+      </c>
+      <c r="C83" s="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A84" s="1">
+        <v>10</v>
+      </c>
+      <c r="B84" s="1">
+        <v>32</v>
+      </c>
+      <c r="C84" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A85" s="1">
+        <v>10</v>
+      </c>
+      <c r="B85" s="1">
+        <v>34</v>
+      </c>
+      <c r="C85" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A86" s="1">
+        <v>10</v>
+      </c>
+      <c r="B86" s="1">
+        <v>36</v>
+      </c>
+      <c r="C86" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A87" s="1">
+        <v>10</v>
+      </c>
+      <c r="B87" s="1">
         <v>39</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C87" s="1">
         <v>351</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="1">
-        <v>10</v>
-      </c>
-      <c r="B26" s="1">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A88" s="1">
+        <v>10</v>
+      </c>
+      <c r="B88" s="1">
         <v>41</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C88" s="1">
         <v>352</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="1">
-        <v>10</v>
-      </c>
-      <c r="B27" s="1">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A89" s="1">
+        <v>10</v>
+      </c>
+      <c r="B89" s="1">
         <v>43</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C89" s="1">
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="1">
-        <v>10</v>
-      </c>
-      <c r="B28" s="1">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A90" s="1">
+        <v>10</v>
+      </c>
+      <c r="B90" s="1">
         <v>45</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C90" s="1">
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29" s="1">
-        <v>10</v>
-      </c>
-      <c r="B29" s="1">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A91" s="1">
+        <v>10</v>
+      </c>
+      <c r="B91" s="1">
         <v>47</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C91" s="1">
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="1">
-        <v>10</v>
-      </c>
-      <c r="B30" s="1">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A92" s="1">
+        <v>10</v>
+      </c>
+      <c r="B92" s="1">
         <v>49</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C92" s="1">
         <v>356</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31" s="1">
-        <v>10</v>
-      </c>
-      <c r="B31" s="1">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A93" s="1">
+        <v>10</v>
+      </c>
+      <c r="B93" s="1">
         <v>51</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C93" s="1">
         <v>357</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="1">
-        <v>10</v>
-      </c>
-      <c r="B32" s="1">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A94" s="1">
+        <v>10</v>
+      </c>
+      <c r="B94" s="1">
         <v>53</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C94" s="1">
         <v>358</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="1">
-        <v>10</v>
-      </c>
-      <c r="B33" s="1">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A95" s="1">
+        <v>10</v>
+      </c>
+      <c r="B95" s="1">
         <v>55</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C95" s="1">
         <v>359</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="1">
-        <v>10</v>
-      </c>
-      <c r="B34" s="1">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A96" s="1">
+        <v>10</v>
+      </c>
+      <c r="B96" s="1">
         <v>57</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C96" s="1">
         <v>360</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35" s="1">
-        <v>10</v>
-      </c>
-      <c r="B35" s="1">
+    <row r="97" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A97" s="1">
+        <v>10</v>
+      </c>
+      <c r="B97" s="1">
         <v>59</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C97" s="1">
         <v>361</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A36" s="1">
-        <v>10</v>
-      </c>
-      <c r="B36" s="1">
+    <row r="98" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A98" s="1">
+        <v>10</v>
+      </c>
+      <c r="B98" s="1">
         <v>61</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C98" s="1">
         <v>362</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37" s="1">
-        <v>10</v>
-      </c>
-      <c r="B37" s="1">
+    <row r="99" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A99" s="1">
+        <v>10</v>
+      </c>
+      <c r="B99" s="1">
         <v>63</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C99" s="1">
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38" s="1">
-        <v>10</v>
-      </c>
-      <c r="B38" s="1">
+    <row r="100" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A100" s="1">
+        <v>10</v>
+      </c>
+      <c r="B100" s="1">
         <v>65</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C100" s="1">
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A39" s="1">
-        <v>10</v>
-      </c>
-      <c r="B39" s="1">
+    <row r="101" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A101" s="1">
+        <v>10</v>
+      </c>
+      <c r="B101" s="1">
         <v>67</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C101" s="1">
         <v>365</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40" s="1">
-        <v>10</v>
-      </c>
-      <c r="B40" s="1">
+    <row r="102" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A102" s="1">
+        <v>10</v>
+      </c>
+      <c r="B102" s="1">
         <v>69</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C102" s="1">
         <v>366</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A41" s="1">
-        <v>10</v>
-      </c>
-      <c r="B41" s="1">
+    <row r="103" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A103" s="1">
+        <v>10</v>
+      </c>
+      <c r="B103" s="1">
         <v>71</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C103" s="1">
         <v>367</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A42" s="1">
-        <v>10</v>
-      </c>
-      <c r="B42" s="1">
+    <row r="104" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A104" s="1">
+        <v>10</v>
+      </c>
+      <c r="B104" s="1">
         <v>73</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C104" s="1">
         <v>368</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A43" s="1">
-        <v>10</v>
-      </c>
-      <c r="B43" s="1">
+    <row r="105" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A105" s="1">
+        <v>10</v>
+      </c>
+      <c r="B105" s="1">
         <v>75</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C105" s="1">
         <v>369</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A44" s="1">
-        <v>10</v>
-      </c>
-      <c r="B44" s="1">
+    <row r="106" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A106" s="1">
+        <v>10</v>
+      </c>
+      <c r="B106" s="1">
         <v>77</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C106" s="1">
         <v>370</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A45" s="1">
-        <v>10</v>
-      </c>
-      <c r="B45" s="1">
+    <row r="107" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A107" s="1">
+        <v>10</v>
+      </c>
+      <c r="B107" s="1">
         <v>79</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C107" s="1">
         <v>371</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A46" s="1">
-        <v>10</v>
-      </c>
-      <c r="B46" s="1">
+    <row r="108" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A108" s="1">
+        <v>10</v>
+      </c>
+      <c r="B108" s="1">
         <v>81</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C108" s="1">
         <v>372</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47" s="1">
-        <v>10</v>
-      </c>
-      <c r="B47" s="1">
+    <row r="109" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A109" s="1">
+        <v>10</v>
+      </c>
+      <c r="B109" s="1">
         <v>83</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C109" s="1">
         <v>373</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48" s="1">
-        <v>10</v>
-      </c>
-      <c r="B48" s="1">
+    <row r="110" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A110" s="1">
+        <v>10</v>
+      </c>
+      <c r="B110" s="1">
         <v>85</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C110" s="1">
         <v>374</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="1">
-        <v>10</v>
-      </c>
-      <c r="B49" s="1">
+    <row r="111" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A111" s="1">
+        <v>10</v>
+      </c>
+      <c r="B111" s="1">
         <v>87</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C111" s="1">
         <v>375</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A50" s="1">
-        <v>10</v>
-      </c>
-      <c r="B50" s="1">
+    <row r="112" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A112" s="1">
+        <v>10</v>
+      </c>
+      <c r="B112" s="1">
         <v>89</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C112" s="1">
         <v>376</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A51" s="1">
-        <v>10</v>
-      </c>
-      <c r="B51" s="1">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A113" s="1">
+        <v>10</v>
+      </c>
+      <c r="B113" s="1">
         <v>91</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C113" s="1">
         <v>377</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A52" s="1">
-        <v>10</v>
-      </c>
-      <c r="B52" s="1">
+    <row r="114" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A114" s="1">
+        <v>10</v>
+      </c>
+      <c r="B114" s="1">
         <v>93</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C114" s="1">
         <v>378</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A53" s="1">
-        <v>10</v>
-      </c>
-      <c r="B53" s="1">
+    <row r="115" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A115" s="1">
+        <v>10</v>
+      </c>
+      <c r="B115" s="1">
         <v>95</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C115" s="1">
         <v>379</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C115" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1069,8 +1340,8 @@
   </sheetPr>
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>

--- a/scripts/ugm/data/kyushu/list_kyushu.xlsx
+++ b/scripts/ugm/data/kyushu/list_kyushu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/genji/scripts/ugm/data/kyushu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4539D918-2F31-3646-8DD8-A919A89800F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FFCD7B-F2E5-CF42-8636-7D42131176D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>book</t>
   </si>
@@ -203,6 +203,14 @@
   </si>
   <si>
     <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411264.json</t>
+  </si>
+  <si>
+    <t>Curation</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://mp.ex.nii.ac.jp/api/curation/json/64cd5625-0294-4a09-b9a1-a23ca8db5d99</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -615,7 +623,7 @@
   </sheetPr>
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1453,10 +1461,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1464,23 +1472,29 @@
     <col min="2" max="2" width="74.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C2" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1488,7 +1502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1496,7 +1510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1504,7 +1518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1512,7 +1526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1520,7 +1534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1528,7 +1542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1536,7 +1550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1544,7 +1558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1552,7 +1566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1560,7 +1574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1568,7 +1582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1576,7 +1590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1584,7 +1598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1915,6 +1929,7 @@
     <hyperlink ref="B9" r:id="rId8" xr:uid="{8F997261-D1AA-C548-936D-C0A47AD03B99}"/>
     <hyperlink ref="B10" r:id="rId9" xr:uid="{2846C1AC-95D8-1145-81C1-51518DBF1412}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{5101A9AA-A76C-1D46-9D01-67D61F7D15B0}"/>
+    <hyperlink ref="C2" r:id="rId11" xr:uid="{166663EE-8C44-F94D-96C9-17E1DB45EB03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scripts/ugm/data/kyushu/list_kyushu.xlsx
+++ b/scripts/ugm/data/kyushu/list_kyushu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/genji/scripts/ugm/data/kyushu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/d_utda/genji/scripts/ugm/data/kyushu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FFCD7B-F2E5-CF42-8636-7D42131176D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124BE8AE-3AE3-AD41-AB5E-9063B3533A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4060" yWindow="2200" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>book</t>
   </si>
@@ -210,6 +210,10 @@
   </si>
   <si>
     <t>https://mp.ex.nii.ac.jp/api/curation/json/64cd5625-0294-4a09-b9a1-a23ca8db5d99</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://catalog.lib.kyushu-u.ac.jp/image/manifest/820/411239.json</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1463,8 +1467,8 @@
   </sheetPr>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1762,8 +1766,8 @@
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>38</v>
+      <c r="B36" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1">
@@ -1771,7 +1775,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
@@ -1779,7 +1783,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
@@ -1787,7 +1791,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1">
@@ -1795,7 +1799,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1">
@@ -1803,14 +1807,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="6"/>
+      <c r="B42" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1">
       <c r="A43" s="3">
@@ -1930,6 +1936,7 @@
     <hyperlink ref="B10" r:id="rId9" xr:uid="{2846C1AC-95D8-1145-81C1-51518DBF1412}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{5101A9AA-A76C-1D46-9D01-67D61F7D15B0}"/>
     <hyperlink ref="C2" r:id="rId11" xr:uid="{166663EE-8C44-F94D-96C9-17E1DB45EB03}"/>
+    <hyperlink ref="B36" r:id="rId12" xr:uid="{574F1232-56A4-894C-BA11-2089896CB78E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
